--- a/results/mp/logistic/corona/confidence/84/stop-words-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,15 @@
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,79 +73,82 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>positive</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>share</t>
@@ -512,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +526,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
@@ -581,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7328767123287672</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -599,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -631,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6896551724137931</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -649,31 +655,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>0.925</v>
+      </c>
+      <c r="L4">
+        <v>111</v>
+      </c>
+      <c r="M4">
+        <v>111</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>9</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="L4">
-        <v>110</v>
-      </c>
-      <c r="M4">
-        <v>110</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -681,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5263157894736842</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -699,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4285714285714285</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -749,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -781,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.313953488372093</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C7">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>162</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>354</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -823,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -831,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2080536912751678</v>
+        <v>0.3294573643410852</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -849,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>118</v>
+        <v>346</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8276762402088773</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>317</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -873,21 +879,45 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.1543624161073825</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>126</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8224543080939948</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>315</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -899,21 +929,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -925,47 +955,47 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>0.7830188679245284</v>
+      </c>
+      <c r="L11">
+        <v>83</v>
+      </c>
+      <c r="M11">
+        <v>83</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>23</v>
-      </c>
-      <c r="K11">
-        <v>0.8046875</v>
-      </c>
-      <c r="L11">
-        <v>103</v>
-      </c>
-      <c r="M11">
-        <v>103</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7830188679245284</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -977,12 +1007,12 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13">
         <v>0.76875</v>
@@ -1008,16 +1038,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7575757575757576</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1029,21 +1059,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L15">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1055,21 +1085,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7253521126760564</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L16">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1081,21 +1111,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.734375</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1107,21 +1137,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1133,21 +1163,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1159,21 +1189,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1185,21 +1215,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21">
+        <v>0.7021276595744681</v>
+      </c>
+      <c r="L21">
         <v>33</v>
       </c>
-      <c r="K21">
-        <v>0.6595744680851063</v>
-      </c>
-      <c r="L21">
-        <v>31</v>
-      </c>
       <c r="M21">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1211,21 +1241,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.64</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1237,21 +1267,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6349206349206349</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1263,21 +1293,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6279069767441861</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1289,21 +1319,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.611764705882353</v>
+        <v>0.64</v>
       </c>
       <c r="L25">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1315,21 +1345,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.611764705882353</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1341,21 +1371,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5690376569037657</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1367,21 +1397,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5638297872340425</v>
+        <v>0.5559322033898305</v>
       </c>
       <c r="L28">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="M28">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1393,21 +1423,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>41</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5538461538461539</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1419,41 +1449,41 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5476190476190477</v>
+        <v>0.5397489539748954</v>
       </c>
       <c r="L30">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="M30">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L31">
         <v>35</v>
@@ -1471,21 +1501,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4044943820224719</v>
+        <v>0.5</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1497,21 +1527,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.3150684931506849</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L33">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1523,21 +1553,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.3076923076923077</v>
+        <v>0.2876712328767123</v>
       </c>
       <c r="L34">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1549,7 +1579,33 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>54</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35">
+        <v>0.2435897435897436</v>
+      </c>
+      <c r="L35">
+        <v>19</v>
+      </c>
+      <c r="M35">
+        <v>19</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
